--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ezugi" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Main data</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>launchToken</t>
-  </si>
-  <si>
-    <t>ecc099a3-029a-464f-a5ea-3e2912db6b03</t>
   </si>
   <si>
     <t>transactionalToken</t>
@@ -802,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,15 +1169,15 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.57407407407407" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.712962962963" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="54.5740740740741" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1307,10 +1304,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1318,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1329,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1340,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>12</v>
@@ -1351,10 +1348,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1362,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1373,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Main data</t>
   </si>
@@ -59,7 +59,7 @@
     <t>playerToken</t>
   </si>
   <si>
-    <t>5f572ad4-4214-47a3-9356-d195bcad23fe</t>
+    <t>7b135b85-e062-4468-9df2-fa2e9afaca8e-1730200427845</t>
   </si>
   <si>
     <t>platformId</t>
@@ -92,6 +92,9 @@
     <t>launchToken</t>
   </si>
   <si>
+    <t>f8de78ce-8204-4b89-93f3-af3b928fdc6c</t>
+  </si>
+  <si>
     <t>transactionalToken</t>
   </si>
   <si>
@@ -128,7 +131,13 @@
     <t>debitTransactionId</t>
   </si>
   <si>
-    <t>046fb0b1-1168-4e24-af29-b8ed9e315745</t>
+    <t>8253fe15-0317-4558-801b-50e8af9d8fc3</t>
+  </si>
+  <si>
+    <t>6a88ac85-c9d9-43f3-919c-5d78e44a047e</t>
+  </si>
+  <si>
+    <t>6f51fdb6-3f0d-43a9-8ad5-2eb02af6b97c</t>
   </si>
 </sst>
 </file>
@@ -799,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,10 +1183,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.7142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="54.5714285714286" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1297,17 +1306,19 @@
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1315,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1326,10 +1337,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1337,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>12</v>
@@ -1348,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1359,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1370,10 +1381,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Main data</t>
   </si>
@@ -92,13 +92,13 @@
     <t>launchToken</t>
   </si>
   <si>
-    <t>f8de78ce-8204-4b89-93f3-af3b928fdc6c</t>
+    <t>a08e4a03-35d0-4ec5-99a5-5c6d5c29dc84</t>
   </si>
   <si>
     <t>transactionalToken</t>
   </si>
   <si>
-    <t>d0298548-d83f-4e0b-9a8b-eabecd21f6ff</t>
+    <t>e87bbebc-df7a-41f8-8803-a956a49c372a</t>
   </si>
   <si>
     <t>serverId</t>
@@ -131,13 +131,19 @@
     <t>debitTransactionId</t>
   </si>
   <si>
-    <t>8253fe15-0317-4558-801b-50e8af9d8fc3</t>
-  </si>
-  <si>
-    <t>6a88ac85-c9d9-43f3-919c-5d78e44a047e</t>
-  </si>
-  <si>
-    <t>6f51fdb6-3f0d-43a9-8ad5-2eb02af6b97c</t>
+    <t>84a364a9-cf56-4d09-bb42-6034e91cbc72</t>
+  </si>
+  <si>
+    <t>84b03b03-6661-4084-9c5e-ca749fcb8875</t>
+  </si>
+  <si>
+    <t>21dcaac0-8970-41fa-9d61-3230ffabf237</t>
+  </si>
+  <si>
+    <t>d81304f2-e7b6-47b3-bb10-e685f2f45fd0</t>
+  </si>
+  <si>
+    <t>336dcfa0-685d-4107-b840-222a882a08fb</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1184,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1307,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1318,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1384,7 +1390,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Main data</t>
   </si>
@@ -144,6 +144,63 @@
   </si>
   <si>
     <t>336dcfa0-685d-4107-b840-222a882a08fb</t>
+  </si>
+  <si>
+    <t>a4b4e4e0-cfc7-4eb0-b11e-5a800626ad90</t>
+  </si>
+  <si>
+    <t>c8c0141f-a0bf-4525-9ca1-c7c3b4121eed</t>
+  </si>
+  <si>
+    <t>41756df3-7dc9-43e9-b1d9-ea5364c1290c</t>
+  </si>
+  <si>
+    <t>9dc45bf4-56fc-4f7a-8c70-0f00c74c0253</t>
+  </si>
+  <si>
+    <t>8f9995ed-7866-4d6e-8a6f-a97b391530f2</t>
+  </si>
+  <si>
+    <t>0838e2fe-e4b2-444c-9bfc-5158b0efe753</t>
+  </si>
+  <si>
+    <t>0cee4375-dc8e-4bd5-bbbb-7066a48cb106</t>
+  </si>
+  <si>
+    <t>fbd621aa-3045-4d10-bc2a-c00470cab198</t>
+  </si>
+  <si>
+    <t>799683e6-b252-42e3-8fe2-d20ec9d2bd6b</t>
+  </si>
+  <si>
+    <t>022ce389-d709-424d-80f7-0a06a60b9dae</t>
+  </si>
+  <si>
+    <t>9dd9b338-6394-430c-b1c3-7372a76d3f7c</t>
+  </si>
+  <si>
+    <t>49cc7e92-8397-48ea-94a4-cb8d87d62228</t>
+  </si>
+  <si>
+    <t>3edc94e5-1aad-4cbf-89df-aacdc3a7e35e</t>
+  </si>
+  <si>
+    <t>3cf57ad3-d533-4306-98fd-b79de9cad7c1</t>
+  </si>
+  <si>
+    <t>16dce6bb-ece9-443d-b99e-41249945985b</t>
+  </si>
+  <si>
+    <t>dc4d53e0-c135-4246-912f-bb190b3ac3b4</t>
+  </si>
+  <si>
+    <t>7d93caab-cc9b-4429-b64e-496fbf1a859f</t>
+  </si>
+  <si>
+    <t>0661a18f-fb1b-4852-a131-be1f3819b53b</t>
+  </si>
+  <si>
+    <t>3de6e360-8ff4-4beb-86ed-4947d5a09f09</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1370,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1324,7 +1381,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1390,7 +1447,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Main data</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>3de6e360-8ff4-4beb-86ed-4947d5a09f09</t>
+  </si>
+  <si>
+    <t>5669a844-1200-44f9-b795-8f5a16baa5a1</t>
+  </si>
+  <si>
+    <t>a51010a5-6ec6-45fe-80b4-c2725d5ad508</t>
+  </si>
+  <si>
+    <t>fc0fa567-7c24-40ce-b138-aa482dd3919e</t>
+  </si>
+  <si>
+    <t>fcdf4b18-c558-408c-adf3-ed9fff74cc27</t>
+  </si>
+  <si>
+    <t>9cb4a811-9927-4ded-bffd-0b24314a50bb</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1385,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1381,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1447,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="ezugi" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Main data</t>
   </si>
@@ -92,13 +92,13 @@
     <t>launchToken</t>
   </si>
   <si>
-    <t>a08e4a03-35d0-4ec5-99a5-5c6d5c29dc84</t>
+    <t>fc0fa567-7c24-40ce-b138-aa482dd3919e</t>
   </si>
   <si>
     <t>transactionalToken</t>
   </si>
   <si>
-    <t>e87bbebc-df7a-41f8-8803-a956a49c372a</t>
+    <t>a51010a5-6ec6-45fe-80b4-c2725d5ad508</t>
   </si>
   <si>
     <t>serverId</t>
@@ -131,91 +131,55 @@
     <t>debitTransactionId</t>
   </si>
   <si>
-    <t>84a364a9-cf56-4d09-bb42-6034e91cbc72</t>
-  </si>
-  <si>
-    <t>84b03b03-6661-4084-9c5e-ca749fcb8875</t>
-  </si>
-  <si>
-    <t>21dcaac0-8970-41fa-9d61-3230ffabf237</t>
-  </si>
-  <si>
-    <t>d81304f2-e7b6-47b3-bb10-e685f2f45fd0</t>
-  </si>
-  <si>
-    <t>336dcfa0-685d-4107-b840-222a882a08fb</t>
-  </si>
-  <si>
-    <t>a4b4e4e0-cfc7-4eb0-b11e-5a800626ad90</t>
-  </si>
-  <si>
-    <t>c8c0141f-a0bf-4525-9ca1-c7c3b4121eed</t>
-  </si>
-  <si>
-    <t>41756df3-7dc9-43e9-b1d9-ea5364c1290c</t>
-  </si>
-  <si>
-    <t>9dc45bf4-56fc-4f7a-8c70-0f00c74c0253</t>
-  </si>
-  <si>
-    <t>8f9995ed-7866-4d6e-8a6f-a97b391530f2</t>
-  </si>
-  <si>
-    <t>0838e2fe-e4b2-444c-9bfc-5158b0efe753</t>
-  </si>
-  <si>
-    <t>0cee4375-dc8e-4bd5-bbbb-7066a48cb106</t>
-  </si>
-  <si>
-    <t>fbd621aa-3045-4d10-bc2a-c00470cab198</t>
-  </si>
-  <si>
-    <t>799683e6-b252-42e3-8fe2-d20ec9d2bd6b</t>
-  </si>
-  <si>
-    <t>022ce389-d709-424d-80f7-0a06a60b9dae</t>
-  </si>
-  <si>
-    <t>9dd9b338-6394-430c-b1c3-7372a76d3f7c</t>
-  </si>
-  <si>
-    <t>49cc7e92-8397-48ea-94a4-cb8d87d62228</t>
-  </si>
-  <si>
-    <t>3edc94e5-1aad-4cbf-89df-aacdc3a7e35e</t>
-  </si>
-  <si>
-    <t>3cf57ad3-d533-4306-98fd-b79de9cad7c1</t>
-  </si>
-  <si>
-    <t>16dce6bb-ece9-443d-b99e-41249945985b</t>
-  </si>
-  <si>
-    <t>dc4d53e0-c135-4246-912f-bb190b3ac3b4</t>
-  </si>
-  <si>
-    <t>7d93caab-cc9b-4429-b64e-496fbf1a859f</t>
-  </si>
-  <si>
-    <t>0661a18f-fb1b-4852-a131-be1f3819b53b</t>
-  </si>
-  <si>
-    <t>3de6e360-8ff4-4beb-86ed-4947d5a09f09</t>
-  </si>
-  <si>
-    <t>5669a844-1200-44f9-b795-8f5a16baa5a1</t>
-  </si>
-  <si>
-    <t>a51010a5-6ec6-45fe-80b4-c2725d5ad508</t>
-  </si>
-  <si>
-    <t>fc0fa567-7c24-40ce-b138-aa482dd3919e</t>
-  </si>
-  <si>
-    <t>fcdf4b18-c558-408c-adf3-ed9fff74cc27</t>
-  </si>
-  <si>
     <t>9cb4a811-9927-4ded-bffd-0b24314a50bb</t>
+  </si>
+  <si>
+    <t>eb662a15-5550-4a1e-8300-0f3d257f71e5</t>
+  </si>
+  <si>
+    <t>0fa0eb46-34ff-4080-b967-fdb365585ebb</t>
+  </si>
+  <si>
+    <t>0c36e72a-7ae8-4586-be4d-93ce8ac04d79</t>
+  </si>
+  <si>
+    <t>177d039a-0f90-44be-a410-9e9c72f8881f</t>
+  </si>
+  <si>
+    <t>4d2aeb02-3a7c-49e3-b002-f61ccc8617a7</t>
+  </si>
+  <si>
+    <t>42fb7df5-4d02-47c5-92ab-fa5b723906f7</t>
+  </si>
+  <si>
+    <t>9591625d-ebbc-498e-bc3d-3486b43cab89</t>
+  </si>
+  <si>
+    <t>55ad970d-89d3-49d0-a0fa-1c13c869dc4f</t>
+  </si>
+  <si>
+    <t>67ab1b82-8d5e-4bc5-ad6a-ceeb3ad57760</t>
+  </si>
+  <si>
+    <t>f497f0b8-9870-480a-b573-bfd67a438cbb</t>
+  </si>
+  <si>
+    <t>80de25f3-090b-49b2-9f41-418a0fce830f</t>
+  </si>
+  <si>
+    <t>309c6fe2-f6e6-4f83-8b5c-1084db367d46</t>
+  </si>
+  <si>
+    <t>acd228ca-1d9d-4d6f-9a45-30cfade45777</t>
+  </si>
+  <si>
+    <t>c0746f3d-abfd-4f0b-b354-9d527195768c</t>
+  </si>
+  <si>
+    <t>a509112c-a49d-4e48-8b21-2ae2bcb18f1d</t>
+  </si>
+  <si>
+    <t>46a9ffad-b253-429a-91cc-a0a1be67e576</t>
   </si>
 </sst>
 </file>
@@ -1256,14 +1220,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.7142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="54.5714285714286" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.57407407407407" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.712962962963" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="54.5740740740741" collapsed="true"/>
     <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1385,7 +1349,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1396,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1462,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ezugi" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Main data</t>
   </si>
@@ -59,7 +59,7 @@
     <t>playerToken</t>
   </si>
   <si>
-    <t>7b135b85-e062-4468-9df2-fa2e9afaca8e-1730200427845</t>
+    <t>9678ff1c-ce76-46c8-a656-92f04341c7fa-1731142438321</t>
   </si>
   <si>
     <t>platformId</t>
@@ -92,13 +92,13 @@
     <t>launchToken</t>
   </si>
   <si>
-    <t>fc0fa567-7c24-40ce-b138-aa482dd3919e</t>
+    <t>d88330b9-39d5-4c92-a2c1-3bdc5a4908e2</t>
   </si>
   <si>
     <t>transactionalToken</t>
   </si>
   <si>
-    <t>a51010a5-6ec6-45fe-80b4-c2725d5ad508</t>
+    <t>161f017a-ae02-4d51-ad13-01b94601f345</t>
   </si>
   <si>
     <t>serverId</t>
@@ -132,54 +132,6 @@
   </si>
   <si>
     <t>9cb4a811-9927-4ded-bffd-0b24314a50bb</t>
-  </si>
-  <si>
-    <t>eb662a15-5550-4a1e-8300-0f3d257f71e5</t>
-  </si>
-  <si>
-    <t>0fa0eb46-34ff-4080-b967-fdb365585ebb</t>
-  </si>
-  <si>
-    <t>0c36e72a-7ae8-4586-be4d-93ce8ac04d79</t>
-  </si>
-  <si>
-    <t>177d039a-0f90-44be-a410-9e9c72f8881f</t>
-  </si>
-  <si>
-    <t>4d2aeb02-3a7c-49e3-b002-f61ccc8617a7</t>
-  </si>
-  <si>
-    <t>42fb7df5-4d02-47c5-92ab-fa5b723906f7</t>
-  </si>
-  <si>
-    <t>9591625d-ebbc-498e-bc3d-3486b43cab89</t>
-  </si>
-  <si>
-    <t>55ad970d-89d3-49d0-a0fa-1c13c869dc4f</t>
-  </si>
-  <si>
-    <t>67ab1b82-8d5e-4bc5-ad6a-ceeb3ad57760</t>
-  </si>
-  <si>
-    <t>f497f0b8-9870-480a-b573-bfd67a438cbb</t>
-  </si>
-  <si>
-    <t>80de25f3-090b-49b2-9f41-418a0fce830f</t>
-  </si>
-  <si>
-    <t>309c6fe2-f6e6-4f83-8b5c-1084db367d46</t>
-  </si>
-  <si>
-    <t>acd228ca-1d9d-4d6f-9a45-30cfade45777</t>
-  </si>
-  <si>
-    <t>c0746f3d-abfd-4f0b-b354-9d527195768c</t>
-  </si>
-  <si>
-    <t>a509112c-a49d-4e48-8b21-2ae2bcb18f1d</t>
-  </si>
-  <si>
-    <t>46a9ffad-b253-429a-91cc-a0a1be67e576</t>
   </si>
 </sst>
 </file>
@@ -850,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,15 +1172,15 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.57407407407407" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.712962962963" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="54.5740740740741" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1348,8 +1300,8 @@
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1360,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1425,7 +1377,7 @@
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
     </row>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ezugi" sheetId="1" r:id="rId1"/>
+    <sheet name="ez" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Main data</t>
   </si>
@@ -92,13 +93,13 @@
     <t>launchToken</t>
   </si>
   <si>
-    <t>d88330b9-39d5-4c92-a2c1-3bdc5a4908e2</t>
+    <t>2ac4401c-e4dc-4bb8-a711-9344092e734b</t>
   </si>
   <si>
     <t>transactionalToken</t>
   </si>
   <si>
-    <t>161f017a-ae02-4d51-ad13-01b94601f345</t>
+    <t>ca87f3aa-9ffc-4711-9207-9e1af0a72f70</t>
   </si>
   <si>
     <t>serverId</t>
@@ -132,6 +133,72 @@
   </si>
   <si>
     <t>9cb4a811-9927-4ded-bffd-0b24314a50bb</t>
+  </si>
+  <si>
+    <t>getURL API</t>
+  </si>
+  <si>
+    <t>playerId</t>
+  </si>
+  <si>
+    <t>operatorId</t>
+  </si>
+  <si>
+    <t>player token / platform token</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>betvita</t>
+  </si>
+  <si>
+    <t>859e7645-a721-4649-b663-19de06fa5eca-1731486168660</t>
+  </si>
+  <si>
+    <t>authentication API</t>
+  </si>
+  <si>
+    <t>game launch token</t>
+  </si>
+  <si>
+    <t>authToken</t>
+  </si>
+  <si>
+    <t>Debit API</t>
+  </si>
+  <si>
+    <t>gameId</t>
+  </si>
+  <si>
+    <t>authentication token</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>debit betTypeID</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Credit API</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>credit betTypeID</t>
+  </si>
+  <si>
+    <t>creditIndex</t>
+  </si>
+  <si>
+    <t>returnReason</t>
+  </si>
+  <si>
+    <t>104</t>
   </si>
 </sst>
 </file>
@@ -144,13 +211,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -165,6 +238,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -315,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +403,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -545,6 +636,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -672,58 +800,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,121 +857,154 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,144 +1326,144 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.57142857142857" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" style="16" customWidth="1"/>
+    <col min="3" max="3" width="54.5714285714286" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
@@ -1316,68 +1471,68 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1388,4 +1543,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.8571428571429" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="22.8571428571429" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Main data</t>
   </si>
@@ -147,13 +147,7 @@
     <t>player token / platform token</t>
   </si>
   <si>
-    <t>1000002</t>
-  </si>
-  <si>
-    <t>betvita</t>
-  </si>
-  <si>
-    <t>859e7645-a721-4649-b663-19de06fa5eca-1731486168660</t>
+    <t>c0987b11-c5d6-4746-a763-ac07fde2e4b8-1731498207823</t>
   </si>
   <si>
     <t>authentication API</t>
@@ -165,6 +159,9 @@
     <t>authToken</t>
   </si>
   <si>
+    <t>1de226a6-f79f-4d42-9b51-910526259109</t>
+  </si>
+  <si>
     <t>Debit API</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>104</t>
+  </si>
+  <si>
+    <t>d628b6d5-cfe0-41d1-89c4-d4964e76995c</t>
+  </si>
+  <si>
+    <t>2712dd32-8386-4610-b361-ebb1329f0aa5</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,10 +1335,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" style="16" customWidth="1"/>
-    <col min="3" max="3" width="54.5714285714286" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="16"/>
+    <col min="1" max="1" customWidth="true" style="16" width="9.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="21.7142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="54.5714285714286" collapsed="true"/>
+    <col min="4" max="16384" style="16" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1551,20 +1554,21 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.8571428571429" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="40.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="21.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="20.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.85714285714286" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="16.4285714285714" collapsed="true"/>
+    <col min="10" max="16384" customWidth="true" style="1" width="22.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1595,16 +1599,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -1612,7 +1616,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1622,10 +1626,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1633,8 +1637,12 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1642,7 +1650,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1655,7 +1663,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
@@ -1664,13 +1672,13 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>28</v>
@@ -1692,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11" t="s">
@@ -1701,7 +1709,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1716,29 +1724,29 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ezugi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Main data</t>
   </si>
@@ -147,7 +147,7 @@
     <t>player token / platform token</t>
   </si>
   <si>
-    <t>c0987b11-c5d6-4746-a763-ac07fde2e4b8-1731498207823</t>
+    <t>6a4cca3e-4758-48ec-b291-23037272cd00-1731587810166</t>
   </si>
   <si>
     <t>authentication API</t>
@@ -159,7 +159,10 @@
     <t>authToken</t>
   </si>
   <si>
-    <t>1de226a6-f79f-4d42-9b51-910526259109</t>
+    <t>c1222e7d-9c68-4b34-aeda-63333762e3c4</t>
+  </si>
+  <si>
+    <t>2712dd32-8386-4610-b361-ebb1329f0aa5</t>
   </si>
   <si>
     <t>Debit API</t>
@@ -198,10 +201,28 @@
     <t>104</t>
   </si>
   <si>
-    <t>d628b6d5-cfe0-41d1-89c4-d4964e76995c</t>
-  </si>
-  <si>
-    <t>2712dd32-8386-4610-b361-ebb1329f0aa5</t>
+    <t>2dae7ec8-4869-4d42-8207-83c4f3fcbda1</t>
+  </si>
+  <si>
+    <t>b0ab4f72-0179-41d3-a89a-58c2a58108f1</t>
+  </si>
+  <si>
+    <t>3c7bd6dc-d6b8-4c1c-9134-ad84be52e39f</t>
+  </si>
+  <si>
+    <t>e1f09830-ec87-46f7-bc59-23e7039f129c</t>
+  </si>
+  <si>
+    <t>e575c477-0b75-48a0-a86c-d175b8ec006a</t>
+  </si>
+  <si>
+    <t>ae8246a3-ecd4-4433-8051-223e20f0a794</t>
+  </si>
+  <si>
+    <t>3ab3efae-4a49-4f81-b766-2adb9c828045</t>
+  </si>
+  <si>
+    <t>53a967ec-645a-4e41-9f50-ce78ff0dc2a0</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="30" spans="1:5">
       <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
@@ -1638,10 +1659,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1650,7 +1671,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1663,7 +1684,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
@@ -1672,13 +1693,13 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>28</v>
@@ -1700,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11" t="s">
@@ -1709,7 +1730,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1724,29 +1745,29 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>

--- a/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
+++ b/ezugi_staging_backend_framework_automation/testscriptdata/TestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8940" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ezugi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Main data</t>
   </si>
@@ -147,7 +147,7 @@
     <t>player token / platform token</t>
   </si>
   <si>
-    <t>6a4cca3e-4758-48ec-b291-23037272cd00-1731587810166</t>
+    <t>b7d70c7c-bb2d-4c9f-b98d-d04e66749e7d-1731734653363</t>
   </si>
   <si>
     <t>authentication API</t>
@@ -159,10 +159,10 @@
     <t>authToken</t>
   </si>
   <si>
-    <t>c1222e7d-9c68-4b34-aeda-63333762e3c4</t>
-  </si>
-  <si>
-    <t>2712dd32-8386-4610-b361-ebb1329f0aa5</t>
+    <t>ae5f98d9-72d9-45d5-b30a-fdf9a87b01ce</t>
+  </si>
+  <si>
+    <t>0afac800-dcf6-4a1b-9794-94909140d2af</t>
   </si>
   <si>
     <t>Debit API</t>
@@ -180,6 +180,9 @@
     <t>debit betTypeID</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -199,30 +202,6 @@
   </si>
   <si>
     <t>104</t>
-  </si>
-  <si>
-    <t>2dae7ec8-4869-4d42-8207-83c4f3fcbda1</t>
-  </si>
-  <si>
-    <t>b0ab4f72-0179-41d3-a89a-58c2a58108f1</t>
-  </si>
-  <si>
-    <t>3c7bd6dc-d6b8-4c1c-9134-ad84be52e39f</t>
-  </si>
-  <si>
-    <t>e1f09830-ec87-46f7-bc59-23e7039f129c</t>
-  </si>
-  <si>
-    <t>e575c477-0b75-48a0-a86c-d175b8ec006a</t>
-  </si>
-  <si>
-    <t>ae8246a3-ecd4-4433-8051-223e20f0a794</t>
-  </si>
-  <si>
-    <t>3ab3efae-4a49-4f81-b766-2adb9c828045</t>
-  </si>
-  <si>
-    <t>53a967ec-645a-4e41-9f50-ce78ff0dc2a0</t>
   </si>
 </sst>
 </file>
@@ -1354,11 +1333,11 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="9.57142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="21.7142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="54.5714285714286" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="16" width="9.57407407407407" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="21.712962962963" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="54.5740740740741" collapsed="true"/>
     <col min="4" max="16384" style="16" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1479,9 +1458,7 @@
       <c r="B11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
@@ -1490,9 +1467,7 @@
       <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
@@ -1575,21 +1550,21 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.8571428571429" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="22.8611111111111" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="40.1428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="21.1428571428571" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.5714285714286" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="20.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.85714285714286" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="40.1388888888889" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.1388888888889" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="21.1388888888889" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.2222222222222" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.5740740740741" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="20.287037037037" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.86111111111111" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="16.4285714285714" collapsed="true"/>
-    <col min="10" max="16384" customWidth="true" style="1" width="22.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="16.4259259259259" collapsed="true"/>
+    <col min="10" max="16384" customWidth="true" style="1" width="22.8611111111111" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1618,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:5">
+    <row r="3" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
@@ -1659,10 +1634,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1710,7 +1685,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="31" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="30" t="s">
@@ -1721,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11" t="s">
@@ -1730,7 +1705,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1745,29 +1720,29 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
